--- a/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABADB600-BDDB-4A17-8BFA-852EF2E94F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D26C18-0CEE-42F1-BF0B-C6BA69439A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1480DF7-0FB4-4171-9D37-68239E958DB0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71D4239C-0A6E-4CDD-BA55-28BE9D1F02A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="270">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>13,7%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
@@ -107,763 +107,742 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,86%</t>
+    <t>9,08%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
+    <t>7,81%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1278,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66D7756-7A89-4FB8-8CD1-EB563E44AD10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3EF41-5BC1-4DBC-B1F0-C04081B655B8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1830,10 +1809,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -1842,13 +1821,13 @@
         <v>19237</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1842,13 @@
         <v>7766</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -1878,13 +1857,13 @@
         <v>16916</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -1893,13 +1872,13 @@
         <v>24681</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1893,13 @@
         <v>97318</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -1929,13 +1908,13 @@
         <v>89367</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -1944,13 +1923,13 @@
         <v>186685</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,7 +1985,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2018,13 +1997,13 @@
         <v>11381</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -2033,13 +2012,13 @@
         <v>25818</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -2048,13 +2027,13 @@
         <v>37199</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2048,13 @@
         <v>2447</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2084,13 +2063,13 @@
         <v>8972</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -2099,13 +2078,13 @@
         <v>11420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2099,13 @@
         <v>7481</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -2135,13 +2114,13 @@
         <v>16095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -2150,13 +2129,13 @@
         <v>23576</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2150,13 @@
         <v>10638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2186,13 +2165,13 @@
         <v>22218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -2201,13 +2180,13 @@
         <v>32855</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2201,13 @@
         <v>141899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>310</v>
@@ -2237,13 +2216,13 @@
         <v>168857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>514</v>
@@ -2252,13 +2231,13 @@
         <v>310756</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,7 +2293,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2326,13 +2305,13 @@
         <v>6056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2341,13 +2320,13 @@
         <v>11138</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2356,13 +2335,13 @@
         <v>17194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2356,13 @@
         <v>2483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2392,13 +2371,13 @@
         <v>5236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>62</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2407,13 +2386,13 @@
         <v>7719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2407,13 @@
         <v>3379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -2443,13 +2422,13 @@
         <v>22732</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -2458,13 +2437,13 @@
         <v>26111</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2458,13 @@
         <v>3159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2494,13 +2473,13 @@
         <v>11776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -2509,13 +2488,13 @@
         <v>14935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2509,13 @@
         <v>132158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>207</v>
@@ -2545,13 +2524,13 @@
         <v>230232</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>381</v>
@@ -2560,13 +2539,13 @@
         <v>362390</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,7 +2601,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2634,13 +2613,13 @@
         <v>9677</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -2649,13 +2628,13 @@
         <v>29340</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -2664,13 +2643,13 @@
         <v>39017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2664,13 @@
         <v>2765</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2703,10 +2682,10 @@
         <v>76</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -2715,13 +2694,13 @@
         <v>14589</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2715,13 @@
         <v>5656</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -2751,10 +2730,10 @@
         <v>18215</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>211</v>
@@ -2790,10 +2769,10 @@
         <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>44</v>
@@ -2802,13 +2781,13 @@
         <v>28716</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -2817,13 +2796,13 @@
         <v>37061</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2817,13 @@
         <v>193802</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>385</v>
@@ -2853,13 +2832,13 @@
         <v>221457</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>672</v>
@@ -2868,13 +2847,13 @@
         <v>415259</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2921,13 @@
         <v>40082</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>193</v>
@@ -2957,13 +2936,13 @@
         <v>97787</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>259</v>
@@ -2972,13 +2951,13 @@
         <v>137870</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2972,13 @@
         <v>12386</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>59</v>
@@ -3008,13 +2987,13 @@
         <v>33769</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>34</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="M35" s="7">
         <v>77</v>
@@ -3023,13 +3002,13 @@
         <v>46155</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,13 +3023,13 @@
         <v>24072</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>125</v>
@@ -3059,13 +3038,13 @@
         <v>72661</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>159</v>
@@ -3074,13 +3053,13 @@
         <v>96733</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3074,13 @@
         <v>31672</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="H37" s="7">
         <v>153</v>
@@ -3110,13 +3089,13 @@
         <v>83410</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>201</v>
@@ -3125,13 +3104,13 @@
         <v>115082</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3125,13 @@
         <v>587754</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>1173</v>
@@ -3161,13 +3140,13 @@
         <v>736523</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M38" s="7">
         <v>2033</v>
@@ -3176,13 +3155,13 @@
         <v>1324276</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3217,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D26C18-0CEE-42F1-BF0B-C6BA69439A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4132F214-74CD-42B0-A941-8CE3D7B0ED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{71D4239C-0A6E-4CDD-BA55-28BE9D1F02A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A59CD9B7-C2BA-47AE-BEED-891ABC5E84AC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No viaja en absoluto</t>
@@ -218,7 +218,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,12%</t>
@@ -353,7 +353,7 @@
     <t>72,49%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>6,55%</t>
@@ -476,7 +476,7 @@
     <t>77,72%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>4,11%</t>
@@ -1257,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3EF41-5BC1-4DBC-B1F0-C04081B655B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C970A8A-59C0-46D0-830D-25477A6566B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4132F214-74CD-42B0-A941-8CE3D7B0ED42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{960DE236-5C1B-4D84-8BA4-30CB90765250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A59CD9B7-C2BA-47AE-BEED-891ABC5E84AC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{888C9CAB-C1E1-4F4F-9EEE-E8133B8E2EFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="277">
   <si>
     <t>Población según si es capaz de usar medios de transporte en 2023 (Tasa respuesta: 31,21%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>13,7%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>20,79%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>Utiliza el taxi o el autobús solo con ayuda de otros</t>
@@ -107,685 +107,700 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,73%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>Sin ayuda</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>Viaja en transporte público cuando va acompañado de otra persona</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>Es capaz de coger un taxi pero no usa otro medio de transporte</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>Sin ayuda</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>7,09%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,94%</t>
   </si>
   <si>
     <t>8,77%</t>
@@ -794,55 +809,61 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
   </si>
   <si>
     <t>84,45%</t>
   </si>
   <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>71,92%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1257,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C970A8A-59C0-46D0-830D-25477A6566B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF61569-9B64-4CDF-BE1F-636F440393D0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1809,10 +1830,10 @@
         <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -1821,13 +1842,13 @@
         <v>19237</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1842,13 +1863,13 @@
         <v>7766</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -1857,13 +1878,13 @@
         <v>16916</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>50</v>
@@ -1872,13 +1893,13 @@
         <v>24681</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1893,13 +1914,13 @@
         <v>97318</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>205</v>
@@ -1908,13 +1929,13 @@
         <v>89367</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -1923,13 +1944,13 @@
         <v>186685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,7 +2006,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1997,13 +2018,13 @@
         <v>11381</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -2012,13 +2033,13 @@
         <v>25818</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>71</v>
@@ -2027,13 +2048,13 @@
         <v>37199</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2048,13 +2069,13 @@
         <v>2447</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2063,13 +2084,13 @@
         <v>8972</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -2078,13 +2099,13 @@
         <v>11420</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,13 +2120,13 @@
         <v>7481</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>29</v>
@@ -2114,13 +2135,13 @@
         <v>16095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -2129,13 +2150,13 @@
         <v>23576</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,13 +2171,13 @@
         <v>10638</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -2165,13 +2186,13 @@
         <v>22218</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>57</v>
@@ -2180,13 +2201,13 @@
         <v>32855</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,13 +2222,13 @@
         <v>141899</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>310</v>
@@ -2216,13 +2237,13 @@
         <v>168857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>514</v>
@@ -2231,13 +2252,13 @@
         <v>310756</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,7 +2314,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2305,13 +2326,13 @@
         <v>6056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -2320,13 +2341,13 @@
         <v>11138</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2335,13 +2356,13 @@
         <v>17194</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2377,13 @@
         <v>2483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2371,13 +2392,13 @@
         <v>5236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -2386,13 +2407,13 @@
         <v>7719</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2428,13 @@
         <v>3379</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>36</v>
@@ -2422,13 +2443,13 @@
         <v>22732</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>40</v>
@@ -2437,13 +2458,13 @@
         <v>26111</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2479,13 @@
         <v>3159</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -2473,13 +2494,13 @@
         <v>11776</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -2488,13 +2509,13 @@
         <v>14935</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2530,13 @@
         <v>132158</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>207</v>
@@ -2524,13 +2545,13 @@
         <v>230232</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>381</v>
@@ -2539,13 +2560,13 @@
         <v>362390</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2601,7 +2622,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2613,13 +2634,13 @@
         <v>9677</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="H28" s="7">
         <v>49</v>
@@ -2628,13 +2649,13 @@
         <v>29340</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -2643,13 +2664,13 @@
         <v>39017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2685,13 @@
         <v>2765</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -2682,10 +2703,10 @@
         <v>76</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="M29" s="7">
         <v>22</v>
@@ -2694,13 +2715,13 @@
         <v>14589</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2736,13 @@
         <v>5656</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -2730,10 +2751,10 @@
         <v>18215</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>211</v>
@@ -2769,10 +2790,10 @@
         <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>44</v>
@@ -2781,13 +2802,13 @@
         <v>28716</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>56</v>
@@ -2796,13 +2817,13 @@
         <v>37061</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2817,13 +2838,13 @@
         <v>193802</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>385</v>
@@ -2832,13 +2853,13 @@
         <v>221457</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>672</v>
@@ -2847,13 +2868,13 @@
         <v>415259</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,13 +2942,13 @@
         <v>40082</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H34" s="7">
         <v>193</v>
@@ -2936,13 +2957,13 @@
         <v>97787</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M34" s="7">
         <v>259</v>
@@ -2951,13 +2972,13 @@
         <v>137870</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,13 +2993,13 @@
         <v>12386</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="H35" s="7">
         <v>59</v>
@@ -2987,13 +3008,13 @@
         <v>33769</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>77</v>
@@ -3002,13 +3023,13 @@
         <v>46155</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3044,13 @@
         <v>24072</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H36" s="7">
         <v>125</v>
@@ -3038,13 +3059,13 @@
         <v>72661</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M36" s="7">
         <v>159</v>
@@ -3053,13 +3074,13 @@
         <v>96733</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3095,13 @@
         <v>31672</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>153</v>
@@ -3089,13 +3110,13 @@
         <v>83410</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>201</v>
@@ -3104,13 +3125,13 @@
         <v>115082</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3146,13 @@
         <v>587754</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H38" s="7">
         <v>1173</v>
@@ -3140,13 +3161,13 @@
         <v>736523</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>2033</v>
@@ -3155,13 +3176,13 @@
         <v>1324276</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,7 +3238,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
